--- a/exec/symlex_vpn_windows/my_account (20-02-24)/my_account.xlsx
+++ b/exec/symlex_vpn_windows/my_account (20-02-24)/my_account.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\my account\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\my_account (20-02-24)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1165C05-B0DD-4940-A4D9-AF6941B22B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB4FBB5-9787-4460-954A-FA3EAF76C402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -415,6 +415,22 @@
   <si>
     <t>TC_SYM_MA_023</t>
   </si>
+  <si>
+    <t>TC_SYM_MA_024</t>
+  </si>
+  <si>
+    <t>check if the features on menu page changes its color after hovering</t>
+  </si>
+  <si>
+    <t>1. open the app store and install the symlexvpn app on your desktop device.
+2. open the installed symlexvpn application.
+3. login with proper credentials
+4. go to menubar
+5. check if the features on menu page changes its color after hovering</t>
+  </si>
+  <si>
+    <t>should change the color</t>
+  </si>
 </sst>
 </file>
 
@@ -631,6 +647,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,9 +667,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,7 +1400,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G26" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G27" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
@@ -1602,7 +1618,7 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1619,15 +1635,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1649,13 +1665,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2103,7 +2119,7 @@
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2640,14 +2656,26 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
+    <row r="27" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="15"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -29655,7 +29683,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F26" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
